--- a/data/outputs/management/59.xlsx
+++ b/data/outputs/management/59.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ26"/>
+  <dimension ref="A1:BR26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>9735291</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1114,6 +1124,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1313,6 +1324,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1520,6 +1532,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4516111</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1727,6 +1744,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1906,6 +1924,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2117,6 +2136,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2324,6 +2344,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2535,6 +2556,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2738,6 +2760,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2941,6 +2964,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3140,6 +3164,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3355,6 +3380,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4343856</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3562,6 +3592,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3769,6 +3800,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>3975629</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3984,6 +4020,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4187,6 +4224,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4394,6 +4432,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>3986789</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4593,6 +4636,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4622851</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4800,6 +4848,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5007,6 +5056,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5214,6 +5264,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>3805451</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5413,6 +5468,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5616,6 +5672,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5823,6 +5880,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
